--- a/biology/Zoologie/Calligrapha/Calligrapha.xlsx
+++ b/biology/Zoologie/Calligrapha/Calligrapha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Calligrapha regroupe plus de 80 espèces de coléoptères de la famille des Chrysomelidae, des insectes phytophages originaires des régions tempérées des Amériques qui se nourrissent de nombreuses espèces d'arbres et arbrisseaux. Ils sont couramment appelés calligraphes, en raison des motifs qui ornent leurs élytres.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de jolis insectes au corps généralement trapu, d'une livrée variant du blanc à ivoire à beige clair, aux élytres ornés de motifs vivement colorés ou de larges taches, parfois maculés de nombreux points et quelques macules. Leur pronotum est nettement plus large que long, fort bombé en sa partie centrale et au tégument finement ponctué. Leur scutellum est triangulaire et très réduit. Leurs élytres forment souvent un dôme, la pointe apicale quelque peu allongée et arrondie, la base presque cunéiforme.
 </t>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils s'alimentent surtout des genres Alnus, Betula, Cornus, Populus, Salix et Ulmus.
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Calligrapha regroupe plus de 80 espèces, dont :
 Calligrapha alni (Brown)
@@ -621,9 +639,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2014)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2014) :
 Calligrapha alni
 Calligrapha alnicola
 Calligrapha amator
